--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,7 +85,13 @@
     <t>Rxfp3</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7226923333333334</v>
+        <v>0.02219366666666667</v>
       </c>
       <c r="N2">
-        <v>2.168077</v>
+        <v>0.066581</v>
       </c>
       <c r="O2">
-        <v>0.807160014534321</v>
+        <v>0.016944541435373</v>
       </c>
       <c r="P2">
-        <v>0.807160014534321</v>
+        <v>0.01694454143537299</v>
       </c>
       <c r="Q2">
-        <v>0.7633189646465556</v>
+        <v>0.02344129843411111</v>
       </c>
       <c r="R2">
-        <v>6.869870681819001</v>
+        <v>0.210971685907</v>
       </c>
       <c r="S2">
-        <v>0.807160014534321</v>
+        <v>0.016944541435373</v>
       </c>
       <c r="T2">
-        <v>0.807160014534321</v>
+        <v>0.01694454143537299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -611,28 +617,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1726596666666667</v>
+        <v>0.7226923333333334</v>
       </c>
       <c r="N3">
-        <v>0.517979</v>
+        <v>2.168077</v>
       </c>
       <c r="O3">
-        <v>0.192839985465679</v>
+        <v>0.5517650765470506</v>
       </c>
       <c r="P3">
-        <v>0.192839985465679</v>
+        <v>0.5517650765470505</v>
       </c>
       <c r="Q3">
-        <v>0.1823658449347778</v>
+        <v>0.7633189646465556</v>
       </c>
       <c r="R3">
-        <v>1.641292604413</v>
+        <v>6.869870681819001</v>
       </c>
       <c r="S3">
-        <v>0.192839985465679</v>
+        <v>0.5517650765470506</v>
       </c>
       <c r="T3">
-        <v>0.192839985465679</v>
+        <v>0.5517650765470505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.056215666666667</v>
+      </c>
+      <c r="H4">
+        <v>3.168647</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.555388</v>
+      </c>
+      <c r="N4">
+        <v>1.666164</v>
+      </c>
+      <c r="O4">
+        <v>0.4240306534315617</v>
+      </c>
+      <c r="P4">
+        <v>0.4240306534315616</v>
+      </c>
+      <c r="Q4">
+        <v>0.5866095066786666</v>
+      </c>
+      <c r="R4">
+        <v>5.279485560108</v>
+      </c>
+      <c r="S4">
+        <v>0.4240306534315617</v>
+      </c>
+      <c r="T4">
+        <v>0.4240306534315616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.056215666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.168647</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.009508666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.028526</v>
+      </c>
+      <c r="O5">
+        <v>0.00725972858601478</v>
+      </c>
+      <c r="P5">
+        <v>0.007259728586014778</v>
+      </c>
+      <c r="Q5">
+        <v>0.01004320270244444</v>
+      </c>
+      <c r="R5">
+        <v>0.090388824322</v>
+      </c>
+      <c r="S5">
+        <v>0.00725972858601478</v>
+      </c>
+      <c r="T5">
+        <v>0.007259728586014778</v>
       </c>
     </row>
   </sheetData>
